--- a/general_regres/general_excel.xlsx
+++ b/general_regres/general_excel.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\Kuliah\Matkul\MedNum\numerical-method-notes\general_regres\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDE713A-2F52-4A95-90C9-76B561ADECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -64,15 +73,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -83,66 +93,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>-200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9486900" cy="5753100"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -332,25 +319,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -373,330 +365,331 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>2.1</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D8" si="1">POW(B3,2)</f>
+      <c r="D3" s="1">
+        <f>POWER(B3,2)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E8" si="2">POW(B3,3)</f>
+      <c r="E3" s="1">
+        <f>POWER(B3,3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F8" si="3">POW(B3,4)</f>
+      <c r="F3" s="1">
+        <f>POWER(B3,4)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G8" si="4">B3*C3</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G8" si="0">B3*C3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H8" si="5">D3*C3</f>
+      <c r="H3" s="1">
+        <f>D3*C3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>7.7</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" si="1"/>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D9" si="1">POWER(B4,2)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" si="2"/>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E9" si="2">POWER(B4,3)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" si="3"/>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F9" si="3">POWER(B4,4)</f>
         <v>1</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="4"/>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" si="5"/>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H9" si="4">D4*C4</f>
         <v>7.7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>13.6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>27.2</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="4"/>
-        <v>27.2</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="5"/>
         <v>54.4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>27.2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="4"/>
-        <v>81.6</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="5"/>
-        <v>244.8</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>244.79999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>40.9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>163.6</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="4"/>
-        <v>163.6</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="5"/>
         <v>654.4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>61.1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="3"/>
         <v>625</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>305.5</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="4"/>
-        <v>305.5</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="5"/>
         <v>1527.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <f t="shared" ref="B9:H9" si="6">SUM(B3:B8)</f>
+      <c r="B9" s="1">
+        <f t="shared" ref="B9:H9" si="5">SUM(B3:B8)</f>
         <v>15</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="6"/>
+      <c r="C9" s="1">
+        <f t="shared" si="5"/>
         <v>152.6</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="6"/>
+      <c r="D9" s="1">
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="6"/>
+      <c r="E9" s="1">
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="6"/>
+      <c r="F9" s="1">
+        <f t="shared" si="5"/>
         <v>979</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="6"/>
+      <c r="G9" s="1">
+        <f>SUM(G3:G8)</f>
         <v>585.6</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="6"/>
-        <v>2488.8</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="H9" s="1">
+        <f>SUM(H3:H8)</f>
+        <v>2488.8000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <f t="shared" ref="B10:C10" si="7">AVERAGE(B3:B8)</f>
+      <c r="B10" s="1">
+        <f t="shared" ref="B10:C10" si="6">AVERAGE(B3:B8)</f>
         <v>2.5</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="7"/>
-        <v>25.43333333</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" s="1">
+        <f t="shared" si="6"/>
+        <v>25.433333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <f>COUNTA(B3:B8)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <f>B11</f>
         <v>6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f>B9</f>
         <v>15</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f>D9</f>
         <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <f>C9</f>
         <v>152.6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <f>B9</f>
         <v>15</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" ref="C13:D13" si="8">D9</f>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:D13" si="7">D9</f>
         <v>55</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
+        <f t="shared" si="7"/>
+        <v>225</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1">
+        <f>G9</f>
+        <v>585.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:D14" si="8">D9</f>
+        <v>55</v>
+      </c>
+      <c r="C14" s="1">
         <f t="shared" si="8"/>
         <v>225</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2">
-        <f>G9</f>
-        <v>585.6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="2">
-        <f t="shared" ref="B14:D14" si="9">D9</f>
-        <v>55</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="9"/>
-        <v>225</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="9"/>
+      <c r="D14" s="1">
+        <f t="shared" si="8"/>
         <v>979</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f>H9</f>
-        <v>2488.8</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2488.8000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="str">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
         <f>CONCATENATE("[[",B12,",",C12,",",D12,"],[",B13,",",C13,",",D13,"],[",B14,",",C14,",",D14,"]]")</f>
         <v>[[6,15,55],[15,55,225],[55,225,979]]</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="str">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
         <f>CONCATENATE("[",H12,",",H13,",",H14,"]")</f>
-        <v>[152.6,585.6,2488.8]</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>[152,6,585,6,2488,8]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="str">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
         <f>CONCATENATE("N = np.array(",A16,")")</f>
         <v>N = np.array([[6,15,55],[15,55,225],[55,225,979]])</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="str">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="str">
         <f>CONCATENATE("r = np.array(",A17,")")</f>
-        <v>r = np.array([152.6,585.6,2488.8])</v>
+        <v>r = np.array([152,6,585,6,2488,8])</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>